--- a/monitor_xlsx/20260205.xlsx
+++ b/monitor_xlsx/20260205.xlsx
@@ -567,12 +567,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4741.3$</t>
+          <t>4861.4$</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>-3.64%</t>
+          <t>-1.20%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -593,12 +593,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>31.65</t>
+          <t>31.66</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>+0.24%</t>
+          <t>+0.27%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -739,13 +739,13 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>128.92%</t>
+          <t>158.39%</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>128.92%</t>
+          <t>140.85%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>128.92%</t>
+          <t>140.85%</t>
         </is>
       </c>
     </row>
@@ -1251,27 +1251,9 @@
           <t>偏空</t>
         </is>
       </c>
-      <c r="P4" t="n">
-        <v>37</v>
-      </c>
-      <c r="Q4" s="6" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="R4" t="n">
-        <v>146512000</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="T4" t="n">
-        <v>71.93000000000001</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0.1</v>
-      </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>partial</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -1312,27 +1294,9 @@
           <t>中性</t>
         </is>
       </c>
-      <c r="P5" t="n">
-        <v>-33</v>
-      </c>
-      <c r="Q5" s="6" t="n">
-        <v>9.65</v>
-      </c>
-      <c r="R5" t="n">
-        <v>2236000</v>
-      </c>
-      <c r="S5" t="n">
-        <v>29.33</v>
-      </c>
-      <c r="T5" t="n">
-        <v>115.13</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>partial</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -1388,27 +1352,9 @@
           <t>主力積極賣出</t>
         </is>
       </c>
-      <c r="P6" t="n">
-        <v>39</v>
-      </c>
-      <c r="Q6" s="6" t="n">
-        <v>8.93</v>
-      </c>
-      <c r="R6" t="n">
-        <v>3256000</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="T6" t="n">
-        <v>943.36</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.23</v>
-      </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>partial</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -1464,27 +1410,9 @@
           <t>主力積極賣出</t>
         </is>
       </c>
-      <c r="P7" t="n">
-        <v>14</v>
-      </c>
-      <c r="Q7" s="7" t="n">
-        <v>-9.65</v>
-      </c>
-      <c r="R7" t="n">
-        <v>172012918</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="T7" t="n">
-        <v>41.35</v>
-      </c>
-      <c r="U7" t="n">
-        <v>-12.33</v>
-      </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>partial</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -1540,27 +1468,9 @@
           <t>主力積極賣出</t>
         </is>
       </c>
-      <c r="P8" t="n">
-        <v>30</v>
-      </c>
-      <c r="Q8" s="6" t="n">
-        <v>8.57</v>
-      </c>
-      <c r="R8" t="n">
-        <v>2231680</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1164.57</v>
-      </c>
-      <c r="U8" t="n">
-        <v>-1.25</v>
-      </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>partial</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -1616,27 +1526,9 @@
           <t>偏空</t>
         </is>
       </c>
-      <c r="P9" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q9" s="7" t="n">
-        <v>-4.58</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1565680</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1750.56</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0.82</v>
-      </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>partial</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -1692,27 +1584,9 @@
           <t>主力積極賣出</t>
         </is>
       </c>
-      <c r="P10" t="n">
-        <v>33</v>
-      </c>
-      <c r="Q10" s="7" t="n">
-        <v>-3.85</v>
-      </c>
-      <c r="R10" t="n">
-        <v>32039000</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="T10" t="n">
-        <v>115.58</v>
-      </c>
-      <c r="U10" t="n">
-        <v>-11.32</v>
-      </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>partial</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -1768,27 +1642,9 @@
           <t>偏多</t>
         </is>
       </c>
-      <c r="P11" t="n">
-        <v>24</v>
-      </c>
-      <c r="Q11" s="7" t="n">
-        <v>-7.66</v>
-      </c>
-      <c r="R11" t="n">
-        <v>2040528</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1740.97</v>
-      </c>
-      <c r="U11" t="n">
-        <v>12.01</v>
-      </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>partial</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -1844,27 +1700,9 @@
           <t>偏空</t>
         </is>
       </c>
-      <c r="P12" t="n">
-        <v>45</v>
-      </c>
-      <c r="Q12" s="6" t="n">
-        <v>8.039999999999999</v>
-      </c>
-      <c r="R12" t="n">
-        <v>5525983</v>
-      </c>
-      <c r="S12" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="T12" t="n">
-        <v>3384.32</v>
-      </c>
-      <c r="U12" t="n">
-        <v>-4.12</v>
-      </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>partial</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -1920,27 +1758,9 @@
           <t>偏多</t>
         </is>
       </c>
-      <c r="P13" t="n">
-        <v>-13</v>
-      </c>
-      <c r="Q13" s="6" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="R13" t="n">
-        <v>22293945</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="T13" t="n">
-        <v>177.96</v>
-      </c>
-      <c r="U13" t="n">
-        <v>6.77</v>
-      </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>partial</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -1996,27 +1816,9 @@
           <t>中性</t>
         </is>
       </c>
-      <c r="P14" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q14" s="6" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1570000</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1487.15</v>
-      </c>
-      <c r="U14" t="n">
-        <v>18.01</v>
-      </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>partial</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -2032,13 +1834,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1025</v>
+        <v>1000</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-9.69</v>
+        <v>-2.44</v>
       </c>
       <c r="E15" t="n">
-        <v>744</v>
+        <v>905</v>
       </c>
       <c r="F15" s="6" t="n">
         <v>101</v>
@@ -2072,27 +1874,9 @@
           <t>偏多</t>
         </is>
       </c>
-      <c r="P15" t="n">
-        <v>14</v>
-      </c>
-      <c r="Q15" s="6" t="n">
-        <v>6.87</v>
-      </c>
-      <c r="R15" t="n">
-        <v>2133400</v>
-      </c>
-      <c r="S15" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="T15" t="n">
-        <v>778.35</v>
-      </c>
-      <c r="U15" t="n">
-        <v>31.69</v>
-      </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>partial</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -2108,13 +1892,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>333.5</v>
-      </c>
-      <c r="D16" s="7" t="n">
-        <v>0.15</v>
+        <v>306.5</v>
+      </c>
+      <c r="D16" s="6" t="n">
+        <v>-8.1</v>
       </c>
       <c r="E16" t="n">
-        <v>26864</v>
+        <v>26486</v>
       </c>
       <c r="F16" s="7" t="n">
         <v>-1799</v>
@@ -2148,27 +1932,9 @@
           <t>主力積極賣出</t>
         </is>
       </c>
-      <c r="P16" t="n">
-        <v>-37</v>
-      </c>
-      <c r="Q16" s="6" t="n">
-        <v>5.49</v>
-      </c>
-      <c r="R16" t="n">
-        <v>9638640</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="T16" t="n">
-        <v>335.89</v>
-      </c>
-      <c r="U16" t="n">
-        <v>-0.71</v>
-      </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>partial</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -2184,13 +1950,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>136</v>
+        <v>132.5</v>
       </c>
       <c r="D17" s="6" t="n">
-        <v>-2.51</v>
+        <v>-2.57</v>
       </c>
       <c r="E17" t="n">
-        <v>2294</v>
+        <v>1591</v>
       </c>
       <c r="F17" s="7" t="n">
         <v>-536</v>
@@ -2224,27 +1990,9 @@
           <t>主力積極買進</t>
         </is>
       </c>
-      <c r="P17" t="n">
-        <v>-30</v>
-      </c>
-      <c r="Q17" s="7" t="n">
-        <v>-4.02</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1860000</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="T17" t="n">
-        <v>140.54</v>
-      </c>
-      <c r="U17" t="n">
-        <v>-3.23</v>
-      </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>partial</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -2260,13 +2008,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>319</v>
+        <v>318.5</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>-2.74</v>
+        <v>-0.16</v>
       </c>
       <c r="E18" t="n">
-        <v>23662</v>
+        <v>20497</v>
       </c>
       <c r="F18" s="6" t="n">
         <v>1022</v>
@@ -2300,27 +2048,9 @@
           <t>主力積極買進</t>
         </is>
       </c>
-      <c r="P18" t="n">
-        <v>29</v>
-      </c>
-      <c r="Q18" s="7" t="n">
-        <v>-8.699999999999999</v>
-      </c>
-      <c r="R18" t="n">
-        <v>11290993</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="T18" t="n">
-        <v>305.14</v>
-      </c>
-      <c r="U18" t="n">
-        <v>4.54</v>
-      </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>partial</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -2376,27 +2106,9 @@
           <t>偏多</t>
         </is>
       </c>
-      <c r="P19" t="n">
-        <v>27</v>
-      </c>
-      <c r="Q19" s="7" t="n">
-        <v>-2.35</v>
-      </c>
-      <c r="R19" t="n">
-        <v>10460826</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="T19" t="n">
-        <v>220.45</v>
-      </c>
-      <c r="U19" t="n">
-        <v>19.53</v>
-      </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>partial</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
